--- a/biology/Zoologie/Grand_Minivet/Grand_Minivet.xlsx
+++ b/biology/Zoologie/Grand_Minivet/Grand_Minivet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pericrocotus flammeus
 Le Grand Minivet (Pericrocotus flammeus) est une espèce d'oiseaux de la famille des Campephagidae.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pericrocotus flammeus a été décrite pour la première fois en 1781 par le naturaliste allemand Johann Reinhold Forster (1729-1798) sous le protonyme Muscicapa flammea[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pericrocotus flammeus a été décrite pour la première fois en 1781 par le naturaliste allemand Johann Reinhold Forster (1729-1798) sous le protonyme Muscicapa flammea. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau sédentaire vit dans la canopée des forêts tropicales humides de l'Inde, de l'Asie du Sud-Est et du sud de la Chine.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (1 décembre 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (1 décembre 2022) :
 sous-espèce Pericrocotus flammeus insulanus Deignan, 1946
 sous-espèce Pericrocotus flammeus siebersi Rensch, 1928</t>
         </is>
@@ -606,15 +624,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grand minivet mesure 23 cm de long.
 Cet oiseau présente un dimorphisme sexuel :la femelle est noire et jaune ; le mâle est noir et orange à rouge écarlate selon son origine géographique.
 			Femelle
 			Mâle
 C'est un oiseau grégaire qui vit souvent en bande de plus de vingt individus. Il se nourrit d'insectes dont des cigales, des sauterelles et criquets, des chenilles…
-Son nid en forme de coupe constitué de lichens se trouve en haut des arbres[3].
-Son chant est composé de sifflements purs et perçants, « ouip-ouip-ouip-ouit-ouip », « souip-souip-souip-souip » ou « souit-souit-souit »[4].
+Son nid en forme de coupe constitué de lichens se trouve en haut des arbres.
+Son chant est composé de sifflements purs et perçants, « ouip-ouip-ouip-ouit-ouip », « souip-souip-souip-souip » ou « souit-souit-souit ».
 	Chant enregistré dans le parc national de Mollem, Goa, Inde
 </t>
         </is>
